--- a/fileImport/AmznAcc.xlsx
+++ b/fileImport/AmznAcc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\CodeGym Documetaries\Graduation Project\Unimerch\fileImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E341801A-F01B-47D2-AB08-FA8879D82A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC80050-25D1-455B-ADEB-12FA76A48F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,6 +767,406 @@
         <v>2</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
